--- a/SmartSSO/Content/Template/孔数模板.xlsx
+++ b/SmartSSO/Content/Template/孔数模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -24,25 +24,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="6">
-  <si>
-    <t>NBR</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="8">
   <si>
     <t>材质</t>
   </si>
   <si>
     <t>硬度</t>
-  </si>
-  <si>
-    <t>外径</t>
-  </si>
-  <si>
-    <t>孔数</t>
   </si>
   <si>
     <t>系数</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外径1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>外径2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>VT</t>
+  </si>
+  <si>
+    <t>SI</t>
   </si>
 </sst>
 </file>
@@ -66,12 +74,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -88,11 +108,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -407,20 +429,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
@@ -429,215 +451,193 @@
         <v>4</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A2" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2" s="1" t="s">
+      <c r="B2" s="2">
+        <v>70</v>
+      </c>
+      <c r="C2" s="2">
         <v>0</v>
       </c>
-      <c r="B2" s="1">
+      <c r="D2" s="2">
+        <v>37</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" s="2">
         <v>70</v>
       </c>
-      <c r="C2" s="1">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1120</v>
-      </c>
-      <c r="E2" s="1">
+      <c r="C3" s="2">
+        <v>37</v>
+      </c>
+      <c r="D3" s="2">
+        <v>86</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2">
+        <v>70</v>
+      </c>
+      <c r="C4" s="2">
+        <v>86</v>
+      </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3" s="1" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>75</v>
+      </c>
+      <c r="C5" s="3">
         <v>0</v>
       </c>
-      <c r="B3" s="1">
-        <v>70</v>
-      </c>
-      <c r="C3" s="1">
-        <v>5</v>
-      </c>
-      <c r="D3" s="1">
-        <v>896</v>
-      </c>
-      <c r="E3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="1">
-        <v>70</v>
-      </c>
-      <c r="C4" s="1">
-        <v>6</v>
-      </c>
-      <c r="D4" s="1">
-        <v>672</v>
-      </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1">
-        <v>70</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-      <c r="D5" s="1">
-        <v>624</v>
-      </c>
-      <c r="E5" s="1">
+      <c r="D5" s="3">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B6" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C6" s="1">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="D6" s="1">
-        <v>624</v>
+        <v>37</v>
       </c>
       <c r="E6" s="1">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B7" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C7" s="1">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="D7" s="1">
-        <v>49</v>
+        <v>86</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="C8" s="1">
-        <v>57</v>
-      </c>
-      <c r="D8" s="1">
-        <v>49</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="D8" s="1"/>
       <c r="E8" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="2">
+        <v>70</v>
+      </c>
+      <c r="C9" s="2">
         <v>0</v>
       </c>
-      <c r="B9" s="1">
+      <c r="D9" s="3">
+        <v>17</v>
+      </c>
+      <c r="E9" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B10" s="2">
         <v>70</v>
       </c>
-      <c r="C9" s="1">
-        <v>58</v>
-      </c>
-      <c r="D9" s="1">
-        <v>49</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A10" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B10" s="1">
+      <c r="C10" s="3">
+        <v>17</v>
+      </c>
+      <c r="D10" s="1">
+        <v>37</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="2">
         <v>70</v>
       </c>
-      <c r="C10" s="1">
-        <v>59</v>
-      </c>
-      <c r="D10" s="1">
-        <v>42</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A11" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B11" s="1">
+      <c r="C11" s="1">
+        <v>37</v>
+      </c>
+      <c r="D11" s="1">
+        <v>86</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B12" s="2">
         <v>70</v>
       </c>
-      <c r="C11" s="1">
-        <v>60</v>
-      </c>
-      <c r="D11" s="1">
-        <v>42</v>
-      </c>
-      <c r="E11" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A12" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B12" s="1">
-        <v>70</v>
-      </c>
       <c r="C12" s="1">
-        <v>61</v>
-      </c>
-      <c r="D12" s="1">
-        <v>42</v>
-      </c>
-      <c r="E12" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A13" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B13" s="1">
-        <v>70</v>
-      </c>
-      <c r="C13" s="1">
-        <v>62</v>
-      </c>
-      <c r="D13" s="1">
-        <v>42</v>
-      </c>
-      <c r="E13" s="1">
+        <v>86</v>
+      </c>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2">
         <v>1</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>